--- a/data/Map006.xlsx
+++ b/data/Map006.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD44CDDA-6979-449D-AE40-882219801D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>アーコイベ</t>
   </si>
@@ -345,22 +350,236 @@
   </si>
   <si>
     <t>EV042</t>
+  </si>
+  <si>
+    <t>Lily has joined your party!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Orcs!
+That's right, everyone got taken away by orcs!
+They were taking orders from that weird woman!</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;It's not like they were flies.
+How did you not notice that sooner?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Since they're only after \n[1] and Lily,
+I'll scout ahead on my own.
+Here, take this.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'll put it on your tab.
+Later!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I see. So they were only pretending to be charmed.
+They had been monitoring us this entire time.
+I thought it was odd that they all appeared from nowhere.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Damn pigs.
+I'm gonna turn you all into pork chops.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I'm still not ready to trust you, hunter.
+You can keep in front of me.</t>
+  </si>
+  <si>
+    <t>Books about monsters line the shelf...
+'Cooking with edible monsters'</t>
+  </si>
+  <si>
+    <t>A cute plush character.</t>
+  </si>
+  <si>
+    <t>After starving the monsters for two days, I offered them
+chained-up pigs, and humans. Instead of picking the easy prey,
+they relentlessly chased after the fleeing humans.</t>
+  </si>
+  <si>
+    <t>However, when I offered them dead pigs, and human corpses,
+there was a high probability that they chose the dead pig.
+They prefer living humans, but dead pigs.</t>
+  </si>
+  <si>
+    <t>From these facts, we may conclude that...</t>
+  </si>
+  <si>
+    <t>The table is densely packed with scribbled out writing.</t>
+  </si>
+  <si>
+    <t>Books about monsters line the shelf...
+'Differences and similarities with animals'</t>
+  </si>
+  <si>
+    <t>Picture books line the shelf...
+'Which one is sweeter?'</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;I read this one as a kid. It shows you two pictures,
+and you have to pick which one is sweeter.
+Oranges or peaches: Which one is sweeter?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;In the final battle of sweets and gummies,
+chocolate reigns supreme.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Meria read this one as a child.
+Sweet foods compete to see who's the sweetest.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;The fight between soda and syrup was a bare-knuckle brawl.</t>
+  </si>
+  <si>
+    <t>A high quality bottle of wine sits on the table...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Do you drink, Lily?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;It seems like they lived pretty well in here.</t>
+  </si>
+  <si>
+    <t>Found a letter with a black lily seal under the bed!
+It's tattered as if it has been read countless times...</t>
+  </si>
+  <si>
+    <t>Your mission is twofold. First, entice Dignus,
+and encourage him to invest in the organization.
+Establishing and maintaning the lab is not enough.</t>
+  </si>
+  <si>
+    <t>He hides a massive fortune. If you can, discern its location,
+and plunder it. Once he has outlived his usefulness,
+do with him what you will.</t>
+  </si>
+  <si>
+    <t>This is ideal. However, our ideals are dissimilar,
+if not contradictory. If our interests could align,
+it would be most advantageous.</t>
+  </si>
+  <si>
+    <t>I entrust this to you, Velvet.
+Love and curses. Love and curses upon the world.</t>
+  </si>
+  <si>
+    <t>Books about monsters line the shelf...
+'Children of Maritia'</t>
+  </si>
+  <si>
+    <t>Medical supplies line the shelf...</t>
+  </si>
+  <si>
+    <t>Nothing else useful.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;A human skeleton...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;An anatomy chart?
+So this is what the inside of a human looks like.
+So that's a liver...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Decapitated.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I don't know what's written here, and I don't care.
+We need to hurry on.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I don't know what this says, and I don't care.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Now's really not the time for that.
+We'll come back once this is all over.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Seeing so many futons here...
+There's no doubt people are living here.
+Unbelievable...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hold it!
+Are you really trying to abandon them?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Don't lose your head.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;This plush is different from the ones in my room.
+I wonder if this person lived in my room.
+...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Monster research...?
+These tests seem awful.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Well I think that depends on the breed.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;That's completely subjective.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Huh...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Did they actually fight...!?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;(How could I never realize that these
+people lived so close to me...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;They said this was a research center...
+But do you suppose someone lives here? I never even
+noticed this place. No noise or anything from here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;The orcs were plenty noisy...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Huh? What?
+Don't try to get to know me.
+I drink when I feel like drinking.</t>
+  </si>
+  <si>
+    <t>On closer inspection, this delicious looking cake is
+made of clay. And yet, there are bite marks all over it...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;So dirty...
+It doesn't look like they knew how to write.</t>
+  </si>
+  <si>
+    <t>The second mission it to educate Chocolat.
+She is a prodigy, but she lacks basic morals.
+She only cares to satisfy her curiosity.</t>
+  </si>
+  <si>
+    <t>Geniuses are always unstable.
+If you can support her, she will come to depend on you.
+You must preserve this balance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -368,28 +587,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -679,495 +913,650 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B49" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B51" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B59" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B76" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B77" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B78" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B79" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B80" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B81" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>